--- a/Diagrama de flujo.xlsx
+++ b/Diagrama de flujo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F20162-4431-4CB0-997F-B01A541FF11D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC10B90B-D086-448E-91C1-1363A5FDA28C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1637,14 +1637,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>179832</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1660,8 +1660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3105150" y="6619875"/>
-          <a:ext cx="1333500" cy="484632"/>
+          <a:off x="2833687" y="6434138"/>
+          <a:ext cx="1352550" cy="484632"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1699,16 +1699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>70104</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>149352</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6476</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1723,8 +1723,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="6105525"/>
-          <a:ext cx="1708404" cy="1540002"/>
+          <a:off x="4214813" y="6191249"/>
+          <a:ext cx="1404937" cy="1125665"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMultidocument">
           <a:avLst/>
@@ -5609,8 +5609,8 @@
   </sheetPr>
   <dimension ref="B1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5641,7 +5641,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="66" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
